--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_8.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9677604575981917</v>
+        <v>0.9661289004654932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7745070689247624</v>
+        <v>0.7822149927829007</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9996917444495963</v>
+        <v>0.8078567233278043</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.062690597633365</v>
+        <v>0.9802999775388624</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7588805983239718</v>
+        <v>0.9386632690126898</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2155859684903343</v>
+        <v>0.22649619854932</v>
       </c>
       <c r="H2" t="n">
-        <v>1.50787226839959</v>
+        <v>1.456329346068492</v>
       </c>
       <c r="I2" t="n">
-        <v>0.001081427805234331</v>
+        <v>1.2503962318909</v>
       </c>
       <c r="J2" t="n">
-        <v>0.8922733574164189</v>
+        <v>0.1652050079581574</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4466773945414343</v>
+        <v>0.7078003845112883</v>
       </c>
       <c r="L2" t="n">
-        <v>1.289000903689377</v>
+        <v>0.7168702810730337</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4643123609062485</v>
+        <v>0.4759161675645407</v>
       </c>
       <c r="N2" t="n">
-        <v>1.014599038068743</v>
+        <v>1.015337856392984</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4840790993691171</v>
+        <v>0.4961769041000442</v>
       </c>
       <c r="P2" t="n">
-        <v>157.0687910465577</v>
+        <v>156.9700542352932</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.9222295614091</v>
+        <v>250.8234927501447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_1</t>
+          <t>model_18_8_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9720778695160112</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7743348365904761</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9914274269665707</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E3" t="n">
-        <v>-4.223794361354899</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F3" t="n">
-        <v>0.7843786559046769</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1867154151160224</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H3" t="n">
-        <v>1.509023986812019</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03007445876842084</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7688092371196683</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K3" t="n">
-        <v>0.3994418512925348</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L3" t="n">
-        <v>1.248938221768945</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4321057915788938</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N3" t="n">
-        <v>1.012643983615391</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4505014297087075</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P3" t="n">
-        <v>157.3563393312163</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q3" t="n">
-        <v>251.2097778460677</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_2</t>
+          <t>model_18_8_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9746085752131045</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7726327453545374</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9730093500798845</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.539342524610402</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F4" t="n">
-        <v>0.7941273511613102</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G4" t="n">
-        <v>0.169792574466731</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H4" t="n">
-        <v>1.520405878744151</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09468909567640985</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6680753915560753</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K4" t="n">
-        <v>0.3813822436162425</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L4" t="n">
-        <v>1.219116918797919</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4120589453788511</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N4" t="n">
-        <v>1.011498003677085</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4296011477632365</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P4" t="n">
-        <v>157.5463554742338</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q4" t="n">
-        <v>251.3997939890852</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_3</t>
+          <t>model_18_8_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9756661869161282</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7697086796422408</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9463167194876482</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.986280198900022</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F5" t="n">
-        <v>0.7908218680003244</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1627203201387578</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H5" t="n">
-        <v>1.539959119626363</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1883326744521711</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J5" t="n">
-        <v>0.5866787294181839</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3875057019351776</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L5" t="n">
-        <v>1.196975147403001</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4033860683498598</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N5" t="n">
-        <v>1.011019085170055</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4205590484037907</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P5" t="n">
-        <v>157.6314447585255</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q5" t="n">
-        <v>251.4848832733769</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_4</t>
+          <t>model_18_8_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9755401214670363</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7658456248524065</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9131626438399425</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.542719178441337</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7770484643750533</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1635633203773127</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H6" t="n">
-        <v>1.565791384793716</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I6" t="n">
-        <v>0.3046444139012043</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J6" t="n">
-        <v>0.5213978653249017</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4130211436729186</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L6" t="n">
-        <v>1.18082651855271</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4044296235160238</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N6" t="n">
-        <v>1.011076171411153</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4216470298738352</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P6" t="n">
-        <v>157.6211101660468</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q6" t="n">
-        <v>251.4745486808983</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_5</t>
+          <t>model_18_8_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9744882110801806</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.761294967690973</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8752315301608947</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.189389400278916</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7551675400697895</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1705974499778189</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H7" t="n">
-        <v>1.596221650186072</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I7" t="n">
-        <v>0.4377150462460503</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4693967377134663</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K7" t="n">
-        <v>0.4535558919797582</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L7" t="n">
-        <v>1.169307079777424</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4130344416363106</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N7" t="n">
-        <v>1.011552508190107</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4306181729159318</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P7" t="n">
-        <v>157.5368971828226</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q7" t="n">
-        <v>251.3903356976741</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_6</t>
+          <t>model_18_8_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9727340731406149</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7562739293766381</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8340383417722563</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.91005082403509</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7272586776969379</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1823273784567575</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H8" t="n">
-        <v>1.629797356513785</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I8" t="n">
-        <v>0.5822297492299594</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4282852270290357</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K8" t="n">
-        <v>0.5052574881294976</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L8" t="n">
-        <v>1.161314583278051</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4269981012331993</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N8" t="n">
-        <v>1.01234683480425</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4451762944106202</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P8" t="n">
-        <v>157.4039028500962</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q8" t="n">
-        <v>251.2573413649476</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_7</t>
+          <t>model_18_8_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9704678113145723</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7509663026355801</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7909019974917055</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.691181961435769</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6951078493565217</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1974818817226806</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H9" t="n">
-        <v>1.665289480970614</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7335614675398441</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J9" t="n">
-        <v>0.39607331521852</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K9" t="n">
-        <v>0.564817391379182</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L9" t="n">
-        <v>1.155966729614913</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4443893357436479</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N9" t="n">
-        <v>1.013373066574533</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4633079097789971</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P9" t="n">
-        <v>157.2442168739243</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q9" t="n">
-        <v>251.0976553887758</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_8</t>
+          <t>model_18_8_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9678480947804725</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7455234264953796</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7469344450401563</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.521535174973892</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6602147250464139</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2149999382488913</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H10" t="n">
-        <v>1.701686018782274</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8878092456802124</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3711056370410563</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6294574400269092</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L10" t="n">
-        <v>1.152577869478726</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4636808581868474</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N10" t="n">
-        <v>1.014559353306956</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4834207122715603</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P10" t="n">
-        <v>157.0742350761379</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.9276735909894</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_9</t>
+          <t>model_18_8_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.965004959174077</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7400673537225406</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7030482209033977</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.391860881417562</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6238107849642007</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2340119991402932</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H11" t="n">
-        <v>1.738170802537153</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I11" t="n">
-        <v>1.041771706327181</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3520208898617633</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K11" t="n">
-        <v>0.6968962980944724</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L11" t="n">
-        <v>1.150606260347835</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4837478673237674</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015846810940041</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5043420155318745</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P11" t="n">
-        <v>156.9047657731236</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.758204287975</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_10</t>
+          <t>model_18_8_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9620426745863786</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7346935266886272</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D12" t="n">
-        <v>0.659962168578575</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.294475785518148</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5868818921981211</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2538208098182987</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H12" t="n">
-        <v>1.774105608657131</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I12" t="n">
-        <v>1.192926989470748</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J12" t="n">
-        <v>0.3376882886707327</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7653076390707403</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L12" t="n">
-        <v>1.151592335135971</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M12" t="n">
-        <v>0.5038063217331623</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N12" t="n">
-        <v>1.01718822282881</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5252543998722022</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P12" t="n">
-        <v>156.7422534681664</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.5956919830178</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_11</t>
+          <t>model_18_8_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.959043266905642</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7294740605861613</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6182221257332177</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.223001224814698</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5501982681512165</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2738778627903868</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H13" t="n">
-        <v>1.809008202517752</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I13" t="n">
-        <v>1.339360177342075</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J13" t="n">
-        <v>0.3271690571147588</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8332646159780779</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L13" t="n">
-        <v>1.155469767012</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M13" t="n">
-        <v>0.5233334145555649</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N13" t="n">
-        <v>1.018546445174804</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5456128014627091</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P13" t="n">
-        <v>156.5901460564247</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.4435845712762</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9560696378402833</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7244616175462708</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5782262075386482</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.172216923561889</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F14" t="n">
-        <v>0.5143442423568889</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2937625340427438</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H14" t="n">
-        <v>1.842526432205678</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I14" t="n">
-        <v>1.479674594957079</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J14" t="n">
-        <v>0.3196949038072193</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K14" t="n">
-        <v>0.899684749382149</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L14" t="n">
-        <v>1.159680845329901</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M14" t="n">
-        <v>0.5419986476392205</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N14" t="n">
-        <v>1.019892994185532</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5650726521610949</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P14" t="n">
-        <v>156.4499670907048</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.3034056055562</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_13</t>
+          <t>model_18_8_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.953168842867589</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C15" t="n">
-        <v>0.719692478405572</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5402467279015049</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.137813099498964</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.479748862310481</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3131601633820833</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H15" t="n">
-        <v>1.874417687599397</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I15" t="n">
-        <v>1.612914905647839</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J15" t="n">
-        <v>0.3146315387698259</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K15" t="n">
-        <v>0.9637732222088322</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L15" t="n">
-        <v>1.16401301502868</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M15" t="n">
-        <v>0.5596071509390166</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N15" t="n">
-        <v>1.021206561720337</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5834307859009902</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P15" t="n">
-        <v>156.3220810304435</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.175519545295</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_14</t>
+          <t>model_18_8_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9503749353045718</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7151898127038838</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5044529744655345</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.116232558685192</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F16" t="n">
-        <v>0.4467137243547359</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3318430361207404</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H16" t="n">
-        <v>1.904527033879455</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I16" t="n">
-        <v>1.738487211381406</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J16" t="n">
-        <v>0.31145543382159</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K16" t="n">
-        <v>1.024971322601498</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L16" t="n">
-        <v>1.168319828023784</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M16" t="n">
-        <v>0.5760581881379175</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N16" t="n">
-        <v>1.022471727409251</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O16" t="n">
-        <v>0.60058217781179</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P16" t="n">
-        <v>156.206186409263</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.0596249241145</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_15</t>
+          <t>model_18_8_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9477111045458784</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C17" t="n">
-        <v>0.710965966691847</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4709302120164826</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.104608596935278</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F17" t="n">
-        <v>0.4154334377268751</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G17" t="n">
-        <v>0.349656084669936</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H17" t="n">
-        <v>1.932771911610968</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I17" t="n">
-        <v>1.856092384664401</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J17" t="n">
-        <v>0.3097446832546513</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K17" t="n">
-        <v>1.082918533959526</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L17" t="n">
-        <v>1.172506451652818</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5913172453682846</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N17" t="n">
-        <v>1.023677990394319</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6164908446990568</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P17" t="n">
-        <v>156.1016104456205</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q17" t="n">
-        <v>249.9550489604719</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_16</t>
+          <t>model_18_8_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9451923904342493</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7070252061324183</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D18" t="n">
-        <v>0.4397014278274947</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.100589401247068</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3860231862024315</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3664987375320118</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H18" t="n">
-        <v>1.959123795617402</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I18" t="n">
-        <v>1.965649781121358</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J18" t="n">
-        <v>0.3091531602050943</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K18" t="n">
-        <v>1.137401476569834</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L18" t="n">
-        <v>1.176506491689493</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6053913920200814</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N18" t="n">
-        <v>1.024818540180717</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6311641569113206</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P18" t="n">
-        <v>156.0075204046433</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q18" t="n">
-        <v>249.8609589194947</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_17</t>
+          <t>model_18_8_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9428271111254247</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7033654991255109</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D19" t="n">
-        <v>0.4107404670599615</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.102294689290011</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3585329040863362</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G19" t="n">
-        <v>0.3823153711612318</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H19" t="n">
-        <v>1.983596273223993</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I19" t="n">
-        <v>2.067251157639304</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J19" t="n">
-        <v>0.3094041350920583</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K19" t="n">
-        <v>1.188327646365681</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L19" t="n">
-        <v>1.180283416851845</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6183165622569331</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N19" t="n">
-        <v>1.025889610056411</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6446395784039459</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P19" t="n">
-        <v>155.9230188640446</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q19" t="n">
-        <v>249.7764573788961</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_18</t>
+          <t>model_18_8_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9406186141774263</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6999801826140655</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D20" t="n">
-        <v>0.3839861391441007</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.108221271846001</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F20" t="n">
-        <v>0.3329643527059776</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G20" t="n">
-        <v>0.3970836004216905</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H20" t="n">
-        <v>2.006233900323977</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I20" t="n">
-        <v>2.161111184103317</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J20" t="n">
-        <v>0.3102763768187437</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K20" t="n">
-        <v>1.235693780461031</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L20" t="n">
-        <v>1.18381454001843</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6301456977728964</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N20" t="n">
-        <v>1.026889684146071</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6569723047085101</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P20" t="n">
-        <v>155.8472168801132</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q20" t="n">
-        <v>249.7006553949647</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_19</t>
+          <t>model_18_8_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9385663847693224</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6968592095085285</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3593509784708492</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.117152823787913</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3092830246805656</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4108068679233286</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H21" t="n">
-        <v>2.027103861851463</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I21" t="n">
-        <v>2.24753670897572</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3115908733627797</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K21" t="n">
-        <v>1.279563804308737</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L21" t="n">
-        <v>1.187096567431792</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6409421720587034</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N21" t="n">
-        <v>1.027818995576156</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6682284072564467</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P21" t="n">
-        <v>155.7792641653125</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.632702680164</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_20</t>
+          <t>model_18_8_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9366670698475209</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6939903019348235</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D22" t="n">
-        <v>0.3367310166539499</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.128162899550349</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F22" t="n">
-        <v>0.287427308203891</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4235075955509565</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H22" t="n">
-        <v>2.046288260006933</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I22" t="n">
-        <v>2.326892476066043</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J22" t="n">
-        <v>0.3132112755765745</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K22" t="n">
-        <v>1.320051854725992</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L22" t="n">
-        <v>1.190124454516921</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6507746119440713</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N22" t="n">
-        <v>1.028679062710557</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6784794344636911</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P22" t="n">
-        <v>155.7183676597312</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q22" t="n">
-        <v>249.5718061745826</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_21</t>
+          <t>model_18_8_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9349153669476979</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6913597180111614</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D23" t="n">
-        <v>0.3160111423068703</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.140489693948897</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2673184122927469</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G23" t="n">
-        <v>0.435221240907923</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H23" t="n">
-        <v>2.063878986817187</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I23" t="n">
-        <v>2.399582321262827</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J23" t="n">
-        <v>0.3150254651755733</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K23" t="n">
-        <v>1.3573038932192</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L23" t="n">
-        <v>1.192912510603853</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M23" t="n">
-        <v>0.659712998892642</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N23" t="n">
-        <v>1.029472286665193</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6877983470496742</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P23" t="n">
-        <v>155.6638015547963</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q23" t="n">
-        <v>249.5172400696478</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_22</t>
+          <t>model_18_8_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9333046178310928</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6889529182343098</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2970721994965038</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.153575199541745</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2488657090636021</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4459923276674791</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H24" t="n">
-        <v>2.079973268007287</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I24" t="n">
-        <v>2.466024269607478</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J24" t="n">
-        <v>0.3169513177027301</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K24" t="n">
-        <v>1.391487809334401</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L24" t="n">
-        <v>1.195462930168259</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6678265700520452</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N24" t="n">
-        <v>1.030201682491581</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O24" t="n">
-        <v>0.6962573297307409</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P24" t="n">
-        <v>155.6149070592986</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.4683455741501</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_23</t>
+          <t>model_18_8_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9318273588285325</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6867550249722651</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D25" t="n">
-        <v>0.2797930332572329</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.16696618524692</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2319725058265899</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4558707654197517</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H25" t="n">
-        <v>2.094670590370947</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I25" t="n">
-        <v>2.526643359184106</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J25" t="n">
-        <v>0.3189221291076426</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K25" t="n">
-        <v>1.422782727764508</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L25" t="n">
-        <v>1.19779380741564</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6751820239163301</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N25" t="n">
-        <v>1.030870629964438</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O25" t="n">
-        <v>0.703925920493917</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P25" t="n">
-        <v>155.5710918376058</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q25" t="n">
-        <v>249.4245303524573</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9304753972088907</v>
+        <v>0.9661279357933024</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6847513028619334</v>
+        <v>0.7822144007444449</v>
       </c>
       <c r="D26" t="n">
-        <v>0.2640521973997074</v>
+        <v>0.8078513915899369</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.180349639564242</v>
+        <v>0.9802993127991205</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2165361894462247</v>
+        <v>0.9386615240856158</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4649113389955075</v>
+        <v>0.226502649316702</v>
       </c>
       <c r="H26" t="n">
-        <v>2.108069489349028</v>
+        <v>1.456333305032373</v>
       </c>
       <c r="I26" t="n">
-        <v>2.581865649753296</v>
+        <v>1.250430928837128</v>
       </c>
       <c r="J26" t="n">
-        <v>0.3208918320844377</v>
+        <v>0.1652105824865401</v>
       </c>
       <c r="K26" t="n">
-        <v>1.451378740918867</v>
+        <v>0.7078205202445441</v>
       </c>
       <c r="L26" t="n">
-        <v>1.199917382932757</v>
+        <v>0.7168293091175212</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6818440723475621</v>
+        <v>0.4759229447260365</v>
       </c>
       <c r="N26" t="n">
-        <v>1.031482838999748</v>
+        <v>1.015338293225674</v>
       </c>
       <c r="O26" t="n">
-        <v>0.710871586119208</v>
+        <v>0.4961839697793354</v>
       </c>
       <c r="P26" t="n">
-        <v>155.5318171208025</v>
+        <v>156.9699972747299</v>
       </c>
       <c r="Q26" t="n">
-        <v>249.3852556356539</v>
+        <v>250.8234357895814</v>
       </c>
     </row>
   </sheetData>

--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_18_8.xlsx
@@ -518,496 +518,496 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_0</t>
+          <t>model_18_8_8</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9661289004654932</v>
+        <v>0.9635784468008176</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7822149927829007</v>
+        <v>0.7224240628271468</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8078567233278043</v>
+        <v>0.3340331461724819</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9802999775388624</v>
+        <v>0.9678761745682231</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9386632690126898</v>
+        <v>0.942350692410293</v>
       </c>
       <c r="G2" t="n">
-        <v>0.22649619854932</v>
+        <v>0.2435510939487648</v>
       </c>
       <c r="H2" t="n">
-        <v>1.456329346068492</v>
+        <v>1.856151569994536</v>
       </c>
       <c r="I2" t="n">
-        <v>1.2503962318909</v>
+        <v>0.9776491421833819</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1652050079581574</v>
+        <v>0.1886760712324874</v>
       </c>
       <c r="K2" t="n">
-        <v>0.7078003845112883</v>
+        <v>0.5831626067079347</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7168702810730337</v>
+        <v>0.5838833893295908</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4759161675645407</v>
+        <v>0.4935089603530667</v>
       </c>
       <c r="N2" t="n">
-        <v>1.015337856392984</v>
+        <v>1.016492778807177</v>
       </c>
       <c r="O2" t="n">
-        <v>0.4961769041000442</v>
+        <v>0.5145186584996793</v>
       </c>
       <c r="P2" t="n">
-        <v>156.9700542352932</v>
+        <v>156.8248570541185</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.8234927501447</v>
+        <v>250.67829556897</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_22</t>
+          <t>model_18_8_9</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9624621152611581</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7223703466851541</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.2671874797745888</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9650973551239669</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9366935635577827</v>
       </c>
       <c r="G3" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2510160080947021</v>
       </c>
       <c r="H3" t="n">
-        <v>1.456333305032373</v>
+        <v>1.856510770083382</v>
       </c>
       <c r="I3" t="n">
-        <v>1.250430928837128</v>
+        <v>1.075779564196101</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.204997188918803</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.6403883765574516</v>
       </c>
       <c r="L3" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.5422171998791147</v>
       </c>
       <c r="M3" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5010149779145352</v>
       </c>
       <c r="N3" t="n">
-        <v>1.015338293225674</v>
+        <v>1.01699828742891</v>
       </c>
       <c r="O3" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5223442227683378</v>
       </c>
       <c r="P3" t="n">
-        <v>156.9699972747299</v>
+        <v>156.7644771292286</v>
       </c>
       <c r="Q3" t="n">
-        <v>250.8234357895814</v>
+        <v>250.6179156440801</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_21</t>
+          <t>model_18_8_7</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9645298180070656</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.722182435357657</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.406052385891868</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9709149608576464</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9484586936062452</v>
       </c>
       <c r="G4" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2371892703119229</v>
       </c>
       <c r="H4" t="n">
-        <v>1.456333305032373</v>
+        <v>1.857767333995607</v>
       </c>
       <c r="I4" t="n">
-        <v>1.250430928837128</v>
+        <v>0.8719238383973277</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.1708280643187031</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.5213759513580154</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.6302871104394714</v>
       </c>
       <c r="M4" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.4870208109638877</v>
       </c>
       <c r="N4" t="n">
-        <v>1.015338293225674</v>
+        <v>1.016061969204348</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5077542951586821</v>
       </c>
       <c r="P4" t="n">
-        <v>156.9699972747299</v>
+        <v>156.8777936953087</v>
       </c>
       <c r="Q4" t="n">
-        <v>250.8234357895814</v>
+        <v>250.7312322101602</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_20</t>
+          <t>model_18_8_10</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.961255300717071</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7221116726292439</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.2056611591445766</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9625479336442964</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9314890099890628</v>
       </c>
       <c r="G5" t="n">
-        <v>0.226502649316702</v>
+        <v>0.259085982507882</v>
       </c>
       <c r="H5" t="n">
-        <v>1.456333305032373</v>
+        <v>1.858240524686338</v>
       </c>
       <c r="I5" t="n">
-        <v>1.250430928837128</v>
+        <v>1.166101108338911</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2199709606360448</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.6930360344874781</v>
       </c>
       <c r="L5" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.5048428688435199</v>
       </c>
       <c r="M5" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.509004894384997</v>
       </c>
       <c r="N5" t="n">
-        <v>1.015338293225674</v>
+        <v>1.017544769486609</v>
       </c>
       <c r="O5" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5306742865243543</v>
       </c>
       <c r="P5" t="n">
-        <v>156.9699972747299</v>
+        <v>156.7011905871609</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.8234357895814</v>
+        <v>250.5546291020123</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_19</t>
+          <t>model_18_8_11</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9600103742043011</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7217143543018477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.149359045533434</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9602029580398979</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9267228844417785</v>
       </c>
       <c r="G6" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2674108118311336</v>
       </c>
       <c r="H6" t="n">
-        <v>1.456333305032373</v>
+        <v>1.860897394171119</v>
       </c>
       <c r="I6" t="n">
-        <v>1.250430928837128</v>
+        <v>1.248753439695482</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2337439399816572</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.7412486898385696</v>
       </c>
       <c r="L6" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.471328243772034</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5171177929941433</v>
       </c>
       <c r="N6" t="n">
-        <v>1.015338293225674</v>
+        <v>1.018108509794279</v>
       </c>
       <c r="O6" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5391325680233074</v>
       </c>
       <c r="P6" t="n">
-        <v>156.9699972747299</v>
+        <v>156.6379383639124</v>
       </c>
       <c r="Q6" t="n">
-        <v>250.8234357895814</v>
+        <v>250.4913768787638</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_18</t>
+          <t>model_18_8_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9652117037381782</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7215212851270053</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.4827235630650498</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9742485658195862</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9549898344682876</v>
       </c>
       <c r="G7" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2326294972881774</v>
       </c>
       <c r="H7" t="n">
-        <v>1.456333305032373</v>
+        <v>1.862188448632292</v>
       </c>
       <c r="I7" t="n">
-        <v>1.250430928837128</v>
+        <v>0.7593694219684211</v>
       </c>
       <c r="J7" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.1512484694601858</v>
       </c>
       <c r="K7" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.4553089457143034</v>
       </c>
       <c r="L7" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.6818962920685254</v>
       </c>
       <c r="M7" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.4823168017892155</v>
       </c>
       <c r="N7" t="n">
-        <v>1.015338293225674</v>
+        <v>1.01575319076007</v>
       </c>
       <c r="O7" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5028500265748027</v>
       </c>
       <c r="P7" t="n">
-        <v>156.9699972747299</v>
+        <v>156.9166164628512</v>
       </c>
       <c r="Q7" t="n">
-        <v>250.8234357895814</v>
+        <v>250.7700549777026</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_17</t>
+          <t>model_18_8_12</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.958764596272785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7212270756788319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.09805591853985607</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9580429659939348</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9223731945076334</v>
       </c>
       <c r="G8" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2757413345954625</v>
       </c>
       <c r="H8" t="n">
-        <v>1.456333305032373</v>
+        <v>1.864155828566938</v>
       </c>
       <c r="I8" t="n">
-        <v>1.250430928837128</v>
+        <v>1.324067185129405</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2464304369242847</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.785248811026845</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.4412206988005604</v>
       </c>
       <c r="M8" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5251107831643361</v>
       </c>
       <c r="N8" t="n">
-        <v>1.015338293225674</v>
+        <v>1.01867263565006</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.547465836332816</v>
       </c>
       <c r="P8" t="n">
-        <v>156.9699972747299</v>
+        <v>156.5765840924002</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.8234357895814</v>
+        <v>250.4300226072516</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_16</t>
+          <t>model_18_8_13</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.957543607729982</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7206856365534828</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.05144745306073983</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9560516553830173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9184131252811558</v>
       </c>
       <c r="G9" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2839060906033211</v>
       </c>
       <c r="H9" t="n">
-        <v>1.456333305032373</v>
+        <v>1.867776434491245</v>
       </c>
       <c r="I9" t="n">
-        <v>1.250430928837128</v>
+        <v>1.392489098370666</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2581262003528779</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.825307649361772</v>
       </c>
       <c r="L9" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.4141658465346129</v>
       </c>
       <c r="M9" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5328283875726979</v>
       </c>
       <c r="N9" t="n">
-        <v>1.015338293225674</v>
+        <v>1.019225536122272</v>
       </c>
       <c r="O9" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5555119951384851</v>
       </c>
       <c r="P9" t="n">
-        <v>156.9699972747299</v>
+        <v>156.518223524786</v>
       </c>
       <c r="Q9" t="n">
-        <v>250.8234357895814</v>
+        <v>250.3716620396374</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_15</t>
+          <t>model_18_8_5</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9654758437454494</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7202692355503548</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.5629211489898014</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.97791019329004</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.961872084660983</v>
       </c>
       <c r="G10" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2308631918433026</v>
       </c>
       <c r="H10" t="n">
-        <v>1.456333305032373</v>
+        <v>1.870560909916512</v>
       </c>
       <c r="I10" t="n">
-        <v>1.250430928837128</v>
+        <v>0.64163818559548</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.1297422672518157</v>
       </c>
       <c r="K10" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.3856902264236479</v>
       </c>
       <c r="L10" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.7394752098583449</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.4804822492489214</v>
       </c>
       <c r="N10" t="n">
-        <v>1.015338293225674</v>
+        <v>1.01563358019074</v>
       </c>
       <c r="O10" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.500937373334821</v>
       </c>
       <c r="P10" t="n">
-        <v>156.9699972747299</v>
+        <v>156.9318599740163</v>
       </c>
       <c r="Q10" t="n">
-        <v>250.8234357895814</v>
+        <v>250.7852984888677</v>
       </c>
     </row>
     <row r="11">
@@ -1017,877 +1017,877 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9563649969047516</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7201165272905597</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.009196318399665504</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.954215935744044</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9148143993106953</v>
       </c>
       <c r="G11" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2917874666186407</v>
       </c>
       <c r="H11" t="n">
-        <v>1.456333305032373</v>
+        <v>1.871582070752918</v>
       </c>
       <c r="I11" t="n">
-        <v>1.250430928837128</v>
+        <v>1.454514385845968</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2689081157913546</v>
       </c>
       <c r="K11" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.8617112508186612</v>
       </c>
       <c r="L11" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.389854017971803</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5401735523131809</v>
       </c>
       <c r="N11" t="n">
-        <v>1.015338293225674</v>
+        <v>1.019759246684641</v>
       </c>
       <c r="O11" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5631698587485576</v>
       </c>
       <c r="P11" t="n">
-        <v>156.9699972747299</v>
+        <v>156.4634591915479</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.8234357895814</v>
+        <v>250.3168977063994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_13</t>
+          <t>model_18_8_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9552404672462552</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7195387560619926</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.02903924358433652</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9525244422317248</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9115489188500447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2993072016229889</v>
       </c>
       <c r="H12" t="n">
-        <v>1.456333305032373</v>
+        <v>1.875445629618739</v>
       </c>
       <c r="I12" t="n">
-        <v>1.250430928837128</v>
+        <v>1.51064475353577</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2788429335202512</v>
       </c>
       <c r="K12" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.8947438435280104</v>
       </c>
       <c r="L12" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.3680005993503436</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5470897564595675</v>
       </c>
       <c r="N12" t="n">
-        <v>1.015338293225674</v>
+        <v>1.020268467662073</v>
       </c>
       <c r="O12" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5703805000239722</v>
       </c>
       <c r="P12" t="n">
-        <v>156.9699972747299</v>
+        <v>156.4125696057187</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.8234357895814</v>
+        <v>250.2660081205702</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_23</t>
+          <t>model_18_8_16</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9541770473163315</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7189662239149291</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.06360089431629845</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9509673059495829</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9085890274617304</v>
       </c>
       <c r="G13" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3064182955909873</v>
       </c>
       <c r="H13" t="n">
-        <v>1.456333305032373</v>
+        <v>1.87927415472242</v>
       </c>
       <c r="I13" t="n">
-        <v>1.250430928837128</v>
+        <v>1.561381765440112</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.287988617514583</v>
       </c>
       <c r="K13" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.9246851914773474</v>
       </c>
       <c r="L13" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.3483602729074656</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5535506260415458</v>
       </c>
       <c r="N13" t="n">
-        <v>1.015338293225674</v>
+        <v>1.020750016309586</v>
       </c>
       <c r="O13" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5771164221998992</v>
       </c>
       <c r="P13" t="n">
-        <v>156.9699972747299</v>
+        <v>156.3656082628791</v>
       </c>
       <c r="Q13" t="n">
-        <v>250.8234357895814</v>
+        <v>250.2190467777305</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_12</t>
+          <t>model_18_8_17</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9531786942905804</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7184087387005257</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.09481176864356167</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.949535827444173</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9059087525227489</v>
       </c>
       <c r="G14" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3130942868711775</v>
       </c>
       <c r="H14" t="n">
-        <v>1.456333305032373</v>
+        <v>1.88300206091812</v>
       </c>
       <c r="I14" t="n">
-        <v>1.250430928837128</v>
+        <v>1.607199788270337</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.2963962631428442</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.9517980257065906</v>
       </c>
       <c r="L14" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.3307116083164511</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5595482882389843</v>
       </c>
       <c r="N14" t="n">
-        <v>1.015338293225674</v>
+        <v>1.021202100698605</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.583369417293955</v>
       </c>
       <c r="P14" t="n">
-        <v>156.9699972747299</v>
+        <v>156.3225017955886</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.8234357895814</v>
+        <v>250.17594031044</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_10</t>
+          <t>model_18_8_4</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9651129849147906</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7181889808774218</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.6446447845715182</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.981916581537027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9689651549085883</v>
       </c>
       <c r="G15" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2332896305147291</v>
       </c>
       <c r="H15" t="n">
-        <v>1.456333305032373</v>
+        <v>1.884471582493107</v>
       </c>
       <c r="I15" t="n">
-        <v>1.250430928837128</v>
+        <v>0.5216666858678589</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.1062111471528449</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.3139389165103519</v>
       </c>
       <c r="L15" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.8041422070801874</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.4830006527063179</v>
       </c>
       <c r="N15" t="n">
-        <v>1.015338293225674</v>
+        <v>1.015797893623491</v>
       </c>
       <c r="O15" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5035629904412127</v>
       </c>
       <c r="P15" t="n">
-        <v>156.9699972747299</v>
+        <v>156.9109490958866</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.8234357895814</v>
+        <v>250.764387610738</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_9</t>
+          <t>model_18_8_18</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9522468289278004</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7178729972852134</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.1229782831705113</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.948221449668557</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9034833748972604</v>
       </c>
       <c r="G16" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3193256748429329</v>
       </c>
       <c r="H16" t="n">
-        <v>1.456333305032373</v>
+        <v>1.886584566229175</v>
       </c>
       <c r="I16" t="n">
-        <v>1.250430928837128</v>
+        <v>1.648548646111091</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3041161293631728</v>
       </c>
       <c r="K16" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.9763323973663042</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.3148459261048387</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5650890857581068</v>
       </c>
       <c r="N16" t="n">
-        <v>1.015338293225674</v>
+        <v>1.021624077466657</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5891460980344986</v>
       </c>
       <c r="P16" t="n">
-        <v>156.9699972747299</v>
+        <v>156.2830875454271</v>
       </c>
       <c r="Q16" t="n">
-        <v>250.8234357895814</v>
+        <v>250.1365260602785</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_8</t>
+          <t>model_18_8_19</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9513812871416234</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7173634442274831</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.1483812577348786</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9470160131803811</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9012901520199094</v>
       </c>
       <c r="G17" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3251135567525522</v>
       </c>
       <c r="H17" t="n">
-        <v>1.456333305032373</v>
+        <v>1.889991949872494</v>
       </c>
       <c r="I17" t="n">
-        <v>1.250430928837128</v>
+        <v>1.685840586616875</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3111961398430059</v>
       </c>
       <c r="K17" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.9985183632299404</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.300574245114236</v>
       </c>
       <c r="M17" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5701872997117282</v>
       </c>
       <c r="N17" t="n">
-        <v>1.015338293225674</v>
+        <v>1.022016020917001</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5944613535108834</v>
       </c>
       <c r="P17" t="n">
-        <v>156.9699972747299</v>
+        <v>156.2471615045756</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.8234357895814</v>
+        <v>250.100600019427</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_7</t>
+          <t>model_18_8_20</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.950580570913875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7168826961345074</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.1712845444669613</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9459124850416607</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.8993078938492068</v>
       </c>
       <c r="G18" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3304679498544648</v>
       </c>
       <c r="H18" t="n">
-        <v>1.456333305032373</v>
+        <v>1.893206714583864</v>
       </c>
       <c r="I18" t="n">
-        <v>1.250430928837128</v>
+        <v>1.719462948597971</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3176776018391949</v>
       </c>
       <c r="K18" t="n">
-        <v>0.7078205202445441</v>
+        <v>1.018570275218583</v>
       </c>
       <c r="L18" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.2877472893274117</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5748634184347311</v>
       </c>
       <c r="N18" t="n">
-        <v>1.015338293225674</v>
+        <v>1.02237860939749</v>
       </c>
       <c r="O18" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5993365442888248</v>
       </c>
       <c r="P18" t="n">
-        <v>156.9699972747299</v>
+        <v>156.214491198229</v>
       </c>
       <c r="Q18" t="n">
-        <v>250.8234357895814</v>
+        <v>250.0679297130804</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_6</t>
+          <t>model_18_8_21</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9498423858685279</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7164321589702936</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.1919258181116703</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9449034787922428</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.8975172109839648</v>
       </c>
       <c r="G19" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3354041966517308</v>
       </c>
       <c r="H19" t="n">
-        <v>1.456333305032373</v>
+        <v>1.896219458675494</v>
       </c>
       <c r="I19" t="n">
-        <v>1.250430928837128</v>
+        <v>1.749764642077672</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3236038989856389</v>
       </c>
       <c r="K19" t="n">
-        <v>0.7078205202445441</v>
+        <v>1.036684270531655</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.2762103706928397</v>
       </c>
       <c r="M19" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5791409126039455</v>
       </c>
       <c r="N19" t="n">
-        <v>1.015338293225674</v>
+        <v>1.022712881870855</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.6037961402404561</v>
       </c>
       <c r="P19" t="n">
-        <v>156.9699972747299</v>
+        <v>156.1848378345857</v>
       </c>
       <c r="Q19" t="n">
-        <v>250.8234357895814</v>
+        <v>250.0382763494372</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_5</t>
+          <t>model_18_8_22</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9491636767150784</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7160122147296573</v>
       </c>
       <c r="D20" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.2105269321131267</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9439818683069843</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.8958999366628821</v>
       </c>
       <c r="G20" t="n">
-        <v>0.226502649316702</v>
+        <v>0.339942727886016</v>
       </c>
       <c r="H20" t="n">
-        <v>1.456333305032373</v>
+        <v>1.899027627746295</v>
       </c>
       <c r="I20" t="n">
-        <v>1.250430928837128</v>
+        <v>1.777071351176874</v>
       </c>
       <c r="J20" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3290168858646308</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7078205202445441</v>
+        <v>1.053044118520752</v>
       </c>
       <c r="L20" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.2658394480180786</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5830460769836429</v>
       </c>
       <c r="N20" t="n">
-        <v>1.015338293225674</v>
+        <v>1.02302022186487</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.6078675555526021</v>
       </c>
       <c r="P20" t="n">
-        <v>156.9699972747299</v>
+        <v>156.1579562459097</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.8234357895814</v>
+        <v>250.0113947607611</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_4</t>
+          <t>model_18_8_23</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9485414922334531</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7156225992580849</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.2272801487987677</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9431414479284829</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.8944403185157157</v>
       </c>
       <c r="G21" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3441032783795406</v>
       </c>
       <c r="H21" t="n">
-        <v>1.456333305032373</v>
+        <v>1.901632988198714</v>
       </c>
       <c r="I21" t="n">
-        <v>1.250430928837128</v>
+        <v>1.801665319821703</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3339530107833808</v>
       </c>
       <c r="K21" t="n">
-        <v>0.7078205202445441</v>
+        <v>1.067809165302542</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.2565108039068312</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5866031694250727</v>
       </c>
       <c r="N21" t="n">
-        <v>1.015338293225674</v>
+        <v>1.023301965781078</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.61157608078346</v>
       </c>
       <c r="P21" t="n">
-        <v>156.9699972747299</v>
+        <v>156.1336268776412</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.8234357895814</v>
+        <v>249.9870653924926</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_3</t>
+          <t>model_18_8_24</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9479722190152168</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7152624848790998</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8078513915899369</v>
+        <v>-0.2423703138280622</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9423760980878106</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.8931231673274861</v>
       </c>
       <c r="G22" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3479100110111491</v>
       </c>
       <c r="H22" t="n">
-        <v>1.456333305032373</v>
+        <v>1.904041074709161</v>
       </c>
       <c r="I22" t="n">
-        <v>1.250430928837128</v>
+        <v>1.823817904160557</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.3384482164170661</v>
       </c>
       <c r="K22" t="n">
-        <v>0.7078205202445441</v>
+        <v>1.081133060288812</v>
       </c>
       <c r="L22" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.2481159082984667</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5898389704073046</v>
       </c>
       <c r="N22" t="n">
-        <v>1.015338293225674</v>
+        <v>1.023559749879902</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.6149496365125369</v>
       </c>
       <c r="P22" t="n">
-        <v>156.9699972747299</v>
+        <v>156.111622843392</v>
       </c>
       <c r="Q22" t="n">
-        <v>250.8234357895814</v>
+        <v>249.9650613582434</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_2</t>
+          <t>model_18_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9638301532931565</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7149526752845953</v>
       </c>
       <c r="D23" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.7247094859231014</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9862344495639045</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9760282769031375</v>
       </c>
       <c r="G23" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2418679314754926</v>
       </c>
       <c r="H23" t="n">
-        <v>1.456333305032373</v>
+        <v>1.906112772894155</v>
       </c>
       <c r="I23" t="n">
-        <v>1.250430928837128</v>
+        <v>0.4041305260039376</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.08085058176371399</v>
       </c>
       <c r="K23" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.2424905538838258</v>
       </c>
       <c r="L23" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.8758961427656543</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.4918007030042684</v>
       </c>
       <c r="N23" t="n">
-        <v>1.015338293225674</v>
+        <v>1.016378798508759</v>
       </c>
       <c r="O23" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5127376770989623</v>
       </c>
       <c r="P23" t="n">
-        <v>156.9699972747299</v>
+        <v>156.8387268789981</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.8234357895814</v>
+        <v>250.6921653938495</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_1</t>
+          <t>model_18_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9612243872972114</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7101129672754785</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.7985272372867265</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9907209292433385</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.982687062183805</v>
       </c>
       <c r="G24" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2592927006888264</v>
       </c>
       <c r="H24" t="n">
-        <v>1.456333305032373</v>
+        <v>1.938475922635925</v>
       </c>
       <c r="I24" t="n">
-        <v>1.250430928837128</v>
+        <v>0.2957649806561725</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.0544996927210081</v>
       </c>
       <c r="K24" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.1751323366885903</v>
       </c>
       <c r="L24" t="n">
-        <v>0.7168293091175212</v>
+        <v>0.9554247902416398</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5092079149903568</v>
       </c>
       <c r="N24" t="n">
-        <v>1.015338293225674</v>
+        <v>1.017558768016357</v>
       </c>
       <c r="O24" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.5308859501371949</v>
       </c>
       <c r="P24" t="n">
-        <v>156.9699972747299</v>
+        <v>156.6995954737922</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.8234357895814</v>
+        <v>250.5530339886436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_11</t>
+          <t>model_18_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9567604708359952</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.7030715997494392</v>
       </c>
       <c r="D25" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.860228809971865</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9950298965132226</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9884151560963315</v>
       </c>
       <c r="G25" t="n">
-        <v>0.226502649316702</v>
+        <v>0.2891429306194244</v>
       </c>
       <c r="H25" t="n">
-        <v>1.456333305032373</v>
+        <v>1.985561579705066</v>
       </c>
       <c r="I25" t="n">
-        <v>1.250430928837128</v>
+        <v>0.2051861639173225</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.02919140503660023</v>
       </c>
       <c r="K25" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.1171887061896666</v>
       </c>
       <c r="L25" t="n">
-        <v>0.7168293091175212</v>
+        <v>1.043451117379698</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5377201229444778</v>
       </c>
       <c r="N25" t="n">
-        <v>1.015338293225674</v>
+        <v>1.019580164149738</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.56061198181233</v>
       </c>
       <c r="P25" t="n">
-        <v>156.9699972747299</v>
+        <v>156.4816682870231</v>
       </c>
       <c r="Q25" t="n">
-        <v>250.8234357895814</v>
+        <v>250.3351068018746</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_18_8_24</t>
+          <t>model_18_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9661279357933024</v>
+        <v>0.9497598402265791</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7822144007444449</v>
+        <v>0.6930477144704561</v>
       </c>
       <c r="D26" t="n">
-        <v>0.8078513915899369</v>
+        <v>0.9033623489349439</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9802993127991205</v>
+        <v>0.9984933975324888</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9386615240856158</v>
+        <v>0.9925504660909771</v>
       </c>
       <c r="G26" t="n">
-        <v>0.226502649316702</v>
+        <v>0.3359561797395299</v>
       </c>
       <c r="H26" t="n">
-        <v>1.456333305032373</v>
+        <v>2.052591346721373</v>
       </c>
       <c r="I26" t="n">
-        <v>1.250430928837128</v>
+        <v>0.1418654939406913</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1652105824865401</v>
+        <v>0.008848878695436864</v>
       </c>
       <c r="K26" t="n">
-        <v>0.7078205202445441</v>
+        <v>0.0753571863180641</v>
       </c>
       <c r="L26" t="n">
-        <v>0.7168293091175212</v>
+        <v>1.140929689015246</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4759229447260365</v>
+        <v>0.5796172700494093</v>
       </c>
       <c r="N26" t="n">
-        <v>1.015338293225674</v>
+        <v>1.022750261029474</v>
       </c>
       <c r="O26" t="n">
-        <v>0.4961839697793354</v>
+        <v>0.6042927772085693</v>
       </c>
       <c r="P26" t="n">
-        <v>156.9699972747299</v>
+        <v>156.1815490899318</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.8234357895814</v>
+        <v>250.0349876047832</v>
       </c>
     </row>
   </sheetData>
